--- a/DBD.xlsx
+++ b/DBD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEX FERRERAS\Desktop\CrudTiendaWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEX FERRERAS\Desktop\Tienda-Web-Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD88875-DB69-48C6-9C73-3CDB374A03D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98AC2A1-6B70-4607-B37B-0423B34C0FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>El nombre</t>
   </si>
@@ -40,22 +40,50 @@
   </si>
   <si>
     <t>suplidor</t>
+  </si>
+  <si>
+    <t>jabon</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>categ</t>
+  </si>
+  <si>
+    <t>suplier</t>
+  </si>
+  <si>
+    <t>jabonaso</t>
+  </si>
+  <si>
+    <t>catego</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>supli</t>
+  </si>
+  <si>
+    <t>papel de banio</t>
+  </si>
+  <si>
+    <t>categoia</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>2020-06-16 10:06:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,37 +393,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -450,16 +478,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -472,7 +500,67 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
